--- a/backend/scripts/eliminar.xlsx
+++ b/backend/scripts/eliminar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\xcargo\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC9C9C-6725-49B9-A37A-AAFD1330EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFEFF7-676C-40C0-9FAA-07E5DEC7AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4485" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,63 +20,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>TRACKING/ GUIA</t>
   </si>
   <si>
-    <t>1178243715941501</t>
-  </si>
-  <si>
-    <t>8261607080243672</t>
-  </si>
-  <si>
-    <t>7734973301020399</t>
-  </si>
-  <si>
-    <t>4701250438175295</t>
-  </si>
-  <si>
-    <t>1403169529836398</t>
-  </si>
-  <si>
-    <t>0370595134521896</t>
-  </si>
-  <si>
-    <t>0873248169709686</t>
-  </si>
-  <si>
-    <t>6401256301819685</t>
-  </si>
-  <si>
-    <t>6098925839505257</t>
-  </si>
-  <si>
-    <t>7889755444094058</t>
-  </si>
-  <si>
-    <t>9959991824608770</t>
-  </si>
-  <si>
-    <t>2243638502409417</t>
-  </si>
-  <si>
-    <t>5581267376955114</t>
-  </si>
-  <si>
-    <t>9287721539090144</t>
-  </si>
-  <si>
-    <t>7366075887642925</t>
-  </si>
-  <si>
-    <t>1020393832672667</t>
-  </si>
-  <si>
-    <t>0414535340374528</t>
-  </si>
-  <si>
-    <t>5815650417033964</t>
+    <t>2275466717577150</t>
+  </si>
+  <si>
+    <t>2359679457452134</t>
+  </si>
+  <si>
+    <t>1358016372780731</t>
+  </si>
+  <si>
+    <t>4704405683667623</t>
+  </si>
+  <si>
+    <t>6348832983060503</t>
+  </si>
+  <si>
+    <t>3475339245106364</t>
+  </si>
+  <si>
+    <t>7034913023813077</t>
+  </si>
+  <si>
+    <t>8278707465563046</t>
+  </si>
+  <si>
+    <t>6648855309628240</t>
+  </si>
+  <si>
+    <t>2602891005623961</t>
+  </si>
+  <si>
+    <t>9742015723121564</t>
+  </si>
+  <si>
+    <t>9843421711869566</t>
+  </si>
+  <si>
+    <t>4456014293322984</t>
+  </si>
+  <si>
+    <t>0689881931594955</t>
+  </si>
+  <si>
+    <t>5081962589041346</t>
+  </si>
+  <si>
+    <t>0951606131513265</t>
+  </si>
+  <si>
+    <t>9408862830550678</t>
+  </si>
+  <si>
+    <t>0191011710808766</t>
+  </si>
+  <si>
+    <t>7187591654922280</t>
+  </si>
+  <si>
+    <t>8791097972712167</t>
+  </si>
+  <si>
+    <t>6639027844075122</t>
+  </si>
+  <si>
+    <t>2625853003037329</t>
+  </si>
+  <si>
+    <t>3246594081095492</t>
+  </si>
+  <si>
+    <t>4980109102498949</t>
+  </si>
+  <si>
+    <t>0131834448606830</t>
+  </si>
+  <si>
+    <t>6328146471799457</t>
+  </si>
+  <si>
+    <t>9302268894827056</t>
+  </si>
+  <si>
+    <t>9919068839159426</t>
+  </si>
+  <si>
+    <t>7658836403289830</t>
+  </si>
+  <si>
+    <t>8217165254048077</t>
+  </si>
+  <si>
+    <t>9313582779176155</t>
+  </si>
+  <si>
+    <t>7272959177168422</t>
+  </si>
+  <si>
+    <t>4904913374378091</t>
+  </si>
+  <si>
+    <t>7426763651409630</t>
+  </si>
+  <si>
+    <t>4879738503222280</t>
+  </si>
+  <si>
+    <t>0702753400507061</t>
+  </si>
+  <si>
+    <t>9405359474535222</t>
+  </si>
+  <si>
+    <t>7316941552151113</t>
+  </si>
+  <si>
+    <t>4255509148318743</t>
+  </si>
+  <si>
+    <t>1901047636583194</t>
+  </si>
+  <si>
+    <t>6614442565330973</t>
+  </si>
+  <si>
+    <t>2783238724110151</t>
+  </si>
+  <si>
+    <t>2171530410537161</t>
+  </si>
+  <si>
+    <t>9278055520069083</t>
+  </si>
+  <si>
+    <t>9894085204270056</t>
+  </si>
+  <si>
+    <t>9928391014782006</t>
+  </si>
+  <si>
+    <t>3015615572537063</t>
+  </si>
+  <si>
+    <t>8750377000266819</t>
+  </si>
+  <si>
+    <t>7594764165999158</t>
+  </si>
+  <si>
+    <t>1256431442733276</t>
+  </si>
+  <si>
+    <t>2856810742613445</t>
+  </si>
+  <si>
+    <t>1006918331145039</t>
+  </si>
+  <si>
+    <t>3816483673642584</t>
+  </si>
+  <si>
+    <t>4869283127289917</t>
+  </si>
+  <si>
+    <t>7064217810766056</t>
+  </si>
+  <si>
+    <t>6208023588379429</t>
+  </si>
+  <si>
+    <t>6432895720244842</t>
+  </si>
+  <si>
+    <t>3073899751213236</t>
+  </si>
+  <si>
+    <t>8963173345682490</t>
+  </si>
+  <si>
+    <t>9405811981007855</t>
+  </si>
+  <si>
+    <t>6434602160635078</t>
+  </si>
+  <si>
+    <t>8074020954155414</t>
+  </si>
+  <si>
+    <t>4753712256857089</t>
+  </si>
+  <si>
+    <t>6318893057788865</t>
+  </si>
+  <si>
+    <t>1025572074329843</t>
+  </si>
+  <si>
+    <t>5331315622103457</t>
+  </si>
+  <si>
+    <t>4461166902989709</t>
+  </si>
+  <si>
+    <t>1255256926651191</t>
+  </si>
+  <si>
+    <t>5048271296969623</t>
+  </si>
+  <si>
+    <t>6829278179666690</t>
+  </si>
+  <si>
+    <t>1742359536079276</t>
+  </si>
+  <si>
+    <t>1997742589695413</t>
+  </si>
+  <si>
+    <t>2462752233531582</t>
+  </si>
+  <si>
+    <t>7509944684813724</t>
+  </si>
+  <si>
+    <t>8314733023608786</t>
+  </si>
+  <si>
+    <t>6016826535131304</t>
+  </si>
+  <si>
+    <t>4807548173086215</t>
+  </si>
+  <si>
+    <t>9005787174173210</t>
+  </si>
+  <si>
+    <t>8717155574113943</t>
+  </si>
+  <si>
+    <t>5479334681287353</t>
+  </si>
+  <si>
+    <t>2248979942826261</t>
+  </si>
+  <si>
+    <t>7242088707057083</t>
+  </si>
+  <si>
+    <t>3704134451252307</t>
+  </si>
+  <si>
+    <t>5244679637857048</t>
+  </si>
+  <si>
+    <t>4108195295478284</t>
+  </si>
+  <si>
+    <t>0401356408740149</t>
+  </si>
+  <si>
+    <t>2293781648947988</t>
+  </si>
+  <si>
+    <t>7155087019715486</t>
+  </si>
+  <si>
+    <t>0975394788450042</t>
+  </si>
+  <si>
+    <t>2136090893174307</t>
+  </si>
+  <si>
+    <t>1608672122615226</t>
+  </si>
+  <si>
+    <t>1437865303098333</t>
+  </si>
+  <si>
+    <t>4561535154794401</t>
+  </si>
+  <si>
+    <t>8058215787072405</t>
+  </si>
+  <si>
+    <t>6346772687661429</t>
+  </si>
+  <si>
+    <t>3375406068925363</t>
+  </si>
+  <si>
+    <t>8344729871936383</t>
+  </si>
+  <si>
+    <t>0044775517407322</t>
+  </si>
+  <si>
+    <t>2345790574260055</t>
+  </si>
+  <si>
+    <t>7400833039918546</t>
+  </si>
+  <si>
+    <t>3088684029083839</t>
+  </si>
+  <si>
+    <t>0017094360681475</t>
+  </si>
+  <si>
+    <t>0324076233694669</t>
+  </si>
+  <si>
+    <t>3214147212572101</t>
+  </si>
+  <si>
+    <t>8199753885337629</t>
+  </si>
+  <si>
+    <t>4858649971686418</t>
+  </si>
+  <si>
+    <t>6123586375002655</t>
+  </si>
+  <si>
+    <t>8617869833325778</t>
+  </si>
+  <si>
+    <t>7551969402778613</t>
+  </si>
+  <si>
+    <t>3532546556206831</t>
+  </si>
+  <si>
+    <t>4216143758766031</t>
+  </si>
+  <si>
+    <t>6832315063011294</t>
+  </si>
+  <si>
+    <t>2567213449338894</t>
+  </si>
+  <si>
+    <t>4896815751871284</t>
+  </si>
+  <si>
+    <t>8519488445727034</t>
+  </si>
+  <si>
+    <t>4798585363195698</t>
+  </si>
+  <si>
+    <t>8558598661620505</t>
+  </si>
+  <si>
+    <t>6287077019905151</t>
+  </si>
+  <si>
+    <t>4754765960694749</t>
+  </si>
+  <si>
+    <t>5270884829209998</t>
+  </si>
+  <si>
+    <t>7226135169746270</t>
+  </si>
+  <si>
+    <t>8069233065194502</t>
+  </si>
+  <si>
+    <t>4948188535351233</t>
+  </si>
+  <si>
+    <t>8515286383211672</t>
+  </si>
+  <si>
+    <t>9649006252856556</t>
+  </si>
+  <si>
+    <t>8626651512846642</t>
+  </si>
+  <si>
+    <t>6072288857744144</t>
+  </si>
+  <si>
+    <t>9685148147172447</t>
   </si>
 </sst>
 </file>
@@ -437,10 +767,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A306"/>
+  <dimension ref="A1:A176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,950 +789,874 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="A87" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="A110" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
+      <c r="A112" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="A113" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+      <c r="A127" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="A129" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+      <c r="A130" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+      <c r="A132" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
+      <c r="A133" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
+      <c r="A143" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+      <c r="A144" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
+      <c r="A145" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="A146" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
+      <c r="A147" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
+      <c r="A152" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
+      <c r="A162" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+      <c r="A166" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+      <c r="A167" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+      <c r="A170" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
+      <c r="A171" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
+      <c r="A172" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
+      <c r="A174" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
+      <c r="A176" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/scripts/eliminar.xlsx
+++ b/backend/scripts/eliminar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\xcargo\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81236F57-4717-4EC6-98AB-4659CE4148F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA088C94-2D72-4279-8AAF-F4B70EB64F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4485" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>TRACKING/ GUIA</t>
   </si>
   <si>
-    <t>8246851769464180</t>
+    <t>6353638286380454</t>
+  </si>
+  <si>
+    <t>9367233733233482</t>
+  </si>
+  <si>
+    <t>7011199280228530</t>
+  </si>
+  <si>
+    <t>1248304206929654</t>
+  </si>
+  <si>
+    <t>3746068902490939</t>
+  </si>
+  <si>
+    <t>2576678446817374</t>
+  </si>
+  <si>
+    <t>5949213270549417</t>
+  </si>
+  <si>
+    <t>0073493765251971</t>
+  </si>
+  <si>
+    <t>5070837091917615</t>
+  </si>
+  <si>
+    <t>9073611374140748</t>
+  </si>
+  <si>
+    <t>7048291706779944</t>
+  </si>
+  <si>
+    <t>8929206036791206</t>
+  </si>
+  <si>
+    <t>9426892460874619</t>
+  </si>
+  <si>
+    <t>2256039606259419</t>
+  </si>
+  <si>
+    <t>7750624897099177</t>
+  </si>
+  <si>
+    <t>0984212204776483</t>
+  </si>
+  <si>
+    <t>7918102502235883</t>
+  </si>
+  <si>
+    <t>2453986779842097</t>
+  </si>
+  <si>
+    <t>9201689030909117</t>
+  </si>
+  <si>
+    <t>6706082185721098</t>
+  </si>
+  <si>
+    <t>5407562194684153</t>
+  </si>
+  <si>
+    <t>4212265007117941</t>
+  </si>
+  <si>
+    <t>6513378838467805</t>
+  </si>
+  <si>
+    <t>7321813682496505</t>
+  </si>
+  <si>
+    <t>8810582103235388</t>
+  </si>
+  <si>
+    <t>4569347096643663</t>
+  </si>
+  <si>
+    <t>2651312916383345</t>
+  </si>
+  <si>
+    <t>0634348374896056</t>
+  </si>
+  <si>
+    <t>8891769036127727</t>
+  </si>
+  <si>
+    <t>3896783821777199</t>
+  </si>
+  <si>
+    <t>3827089043739259</t>
+  </si>
+  <si>
+    <t>9053046760959679</t>
+  </si>
+  <si>
+    <t>9617236099329986</t>
+  </si>
+  <si>
+    <t>5816475839515415</t>
+  </si>
+  <si>
+    <t>1526815331690949</t>
+  </si>
+  <si>
+    <t>4299722187854691</t>
+  </si>
+  <si>
+    <t>5251294999090156</t>
+  </si>
+  <si>
+    <t>3008030010259036</t>
+  </si>
+  <si>
+    <t>8790644867951064</t>
+  </si>
+  <si>
+    <t>2811938713378381</t>
+  </si>
+  <si>
+    <t>6996688094077127</t>
+  </si>
+  <si>
+    <t>7548091578779137</t>
+  </si>
+  <si>
+    <t>2923431225858704</t>
+  </si>
+  <si>
+    <t>0537173840824310</t>
+  </si>
+  <si>
+    <t>7154182315688482</t>
+  </si>
+  <si>
+    <t>9462094411489170</t>
+  </si>
+  <si>
+    <t>3208037753550825</t>
+  </si>
+  <si>
+    <t>5383977563361606</t>
+  </si>
+  <si>
+    <t>0506652805501667</t>
+  </si>
+  <si>
+    <t>8576527375469937</t>
+  </si>
+  <si>
+    <t>4651018629195465</t>
+  </si>
+  <si>
+    <t>0872247671006177</t>
+  </si>
+  <si>
+    <t>4972125661078243</t>
+  </si>
+  <si>
+    <t>9221162748148331</t>
+  </si>
+  <si>
+    <t>6268214606246188</t>
+  </si>
+  <si>
+    <t>0188599130887991</t>
+  </si>
+  <si>
+    <t>5522461804219479</t>
+  </si>
+  <si>
+    <t>5388115115877355</t>
+  </si>
+  <si>
+    <t>9849351703973802</t>
+  </si>
+  <si>
+    <t>1158776613424551</t>
+  </si>
+  <si>
+    <t>1399618834898101</t>
+  </si>
+  <si>
+    <t>4779485005558494</t>
   </si>
 </sst>
 </file>
@@ -396,7 +579,7 @@
   <dimension ref="A1:A224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,670 +598,812 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39"/>
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
+      <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
+      <c r="A47" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+      <c r="A49" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
+      <c r="A50" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
+      <c r="A51" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
+      <c r="A53" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
+      <c r="A54" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55"/>
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56"/>
+      <c r="A56" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57"/>
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58"/>
+      <c r="A58" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
+      <c r="A59" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60"/>
+      <c r="A60" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61"/>
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62"/>
+      <c r="A62" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
+      <c r="A63" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64"/>
+      <c r="A64" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65"/>
+      <c r="A65" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66"/>
+      <c r="A66" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67"/>
+      <c r="A67" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
+      <c r="A68" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69"/>
+      <c r="A69" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70"/>
+      <c r="A70" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71"/>
+      <c r="A71" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
+      <c r="A72" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
+      <c r="A73" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129"/>
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171"/>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172"/>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173"/>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174"/>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175"/>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176"/>
+      <c r="A176" s="3"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177"/>
+      <c r="A177" s="3"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178"/>
+      <c r="A178" s="3"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179"/>
+      <c r="A179" s="3"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188"/>
+      <c r="A188" s="3"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189"/>
+      <c r="A189" s="3"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190"/>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203"/>
+      <c r="A203" s="3"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204"/>
+      <c r="A204" s="3"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205"/>
+      <c r="A205" s="3"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206"/>
+      <c r="A206" s="3"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210"/>
+      <c r="A210" s="3"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211"/>
+      <c r="A211" s="3"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212"/>
+      <c r="A212" s="3"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213"/>
+      <c r="A213" s="3"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214"/>
+      <c r="A214" s="3"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215"/>
+      <c r="A215" s="3"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216"/>
+      <c r="A216" s="3"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218"/>
+      <c r="A218" s="3"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219"/>
+      <c r="A219" s="3"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222"/>
+      <c r="A222" s="3"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223"/>
+      <c r="A223" s="3"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224"/>
+      <c r="A224" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/scripts/eliminar.xlsx
+++ b/backend/scripts/eliminar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\xcargo\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCFC11B-007A-43DC-AFC8-601EEC93C5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AAC0F-831C-470B-B677-E0C9BEA36E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4485" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,645 +25,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>TRACKING/ GUIA</t>
   </si>
   <si>
-    <t>6744305001224429</t>
-  </si>
-  <si>
-    <t>4377298640278506</t>
-  </si>
-  <si>
-    <t>0082501929215025</t>
-  </si>
-  <si>
-    <t>7352941883149470</t>
-  </si>
-  <si>
-    <t>4666794419347225</t>
-  </si>
-  <si>
-    <t>4024414106756074</t>
-  </si>
-  <si>
-    <t>9460079456442080</t>
-  </si>
-  <si>
-    <t>9956567297183696</t>
-  </si>
-  <si>
-    <t>5618052155528352</t>
-  </si>
-  <si>
-    <t>4738588189153220</t>
-  </si>
-  <si>
-    <t>0189537687839873</t>
-  </si>
-  <si>
-    <t>8450974022489618</t>
-  </si>
-  <si>
-    <t>6790813265114647</t>
-  </si>
-  <si>
-    <t>9533567313878760</t>
-  </si>
-  <si>
-    <t>0109426538137826</t>
-  </si>
-  <si>
-    <t>5260133779893451</t>
-  </si>
-  <si>
-    <t>4891289036467510</t>
-  </si>
-  <si>
-    <t>7994898886940947</t>
-  </si>
-  <si>
-    <t>1793133360155435</t>
-  </si>
-  <si>
-    <t>5472739435074225</t>
-  </si>
-  <si>
-    <t>8880936254398577</t>
-  </si>
-  <si>
-    <t>2037311693325245</t>
-  </si>
-  <si>
-    <t>7384940805889972</t>
-  </si>
-  <si>
-    <t>7950649383926593</t>
-  </si>
-  <si>
-    <t>8128127270194860</t>
-  </si>
-  <si>
-    <t>7490213259272218</t>
-  </si>
-  <si>
-    <t>4266792943161497</t>
-  </si>
-  <si>
-    <t>9479016791650915</t>
-  </si>
-  <si>
-    <t>4846099510279347</t>
-  </si>
-  <si>
-    <t>0043791484706997</t>
-  </si>
-  <si>
-    <t>7327445884331253</t>
-  </si>
-  <si>
-    <t>5972115548461611</t>
-  </si>
-  <si>
-    <t>3178782569085617</t>
-  </si>
-  <si>
-    <t>6908921416710501</t>
-  </si>
-  <si>
-    <t>1507517616229228</t>
-  </si>
-  <si>
-    <t>1946091305281810</t>
-  </si>
-  <si>
-    <t>5908120554960257</t>
-  </si>
-  <si>
-    <t>4041771228125414</t>
-  </si>
-  <si>
-    <t>3808713765745269</t>
-  </si>
-  <si>
-    <t>9027562507162862</t>
-  </si>
-  <si>
-    <t>6252414929565195</t>
-  </si>
-  <si>
-    <t>8259939036152997</t>
-  </si>
-  <si>
-    <t>4186221273646327</t>
-  </si>
-  <si>
-    <t>8215322397851053</t>
-  </si>
-  <si>
-    <t>6334623904439657</t>
-  </si>
-  <si>
-    <t>0698557087093298</t>
-  </si>
-  <si>
-    <t>8992040234082265</t>
-  </si>
-  <si>
-    <t>5048839587395328</t>
-  </si>
-  <si>
-    <t>6146434803149126</t>
-  </si>
-  <si>
-    <t>6591234970227005</t>
-  </si>
-  <si>
-    <t>2100743665838125</t>
-  </si>
-  <si>
-    <t>5643853461926332</t>
-  </si>
-  <si>
-    <t>7820319871459011</t>
-  </si>
-  <si>
-    <t>6039709674241497</t>
-  </si>
-  <si>
-    <t>4840167960714829</t>
-  </si>
-  <si>
-    <t>2597044997896861</t>
-  </si>
-  <si>
-    <t>5706874912203461</t>
-  </si>
-  <si>
-    <t>7313894100925977</t>
-  </si>
-  <si>
-    <t>7177059780714277</t>
-  </si>
-  <si>
-    <t>1328264531572706</t>
-  </si>
-  <si>
-    <t>9887803469167399</t>
-  </si>
-  <si>
-    <t>3361653425697653</t>
-  </si>
-  <si>
-    <t>6096355343104150</t>
-  </si>
-  <si>
-    <t>1037336243953333</t>
-  </si>
-  <si>
-    <t>0346147004352781</t>
-  </si>
-  <si>
-    <t>4705386114992840</t>
-  </si>
-  <si>
-    <t>3606021968686057</t>
-  </si>
-  <si>
-    <t>6058418001580297</t>
-  </si>
-  <si>
-    <t>3855643308919255</t>
-  </si>
-  <si>
-    <t>3747292053096552</t>
-  </si>
-  <si>
-    <t>2145972989023994</t>
-  </si>
-  <si>
-    <t>9086990780111510</t>
-  </si>
-  <si>
-    <t>3692310001417476</t>
-  </si>
-  <si>
-    <t>7146179327775853</t>
-  </si>
-  <si>
-    <t>1188054272676979</t>
-  </si>
-  <si>
-    <t>7435941651414518</t>
-  </si>
-  <si>
-    <t>7148524453503297</t>
-  </si>
-  <si>
-    <t>2620669780542258</t>
-  </si>
-  <si>
-    <t>3377033774890572</t>
-  </si>
-  <si>
-    <t>1950874313641823</t>
-  </si>
-  <si>
-    <t>6881533223572765</t>
-  </si>
-  <si>
-    <t>7819767741650697</t>
-  </si>
-  <si>
-    <t>9936621260411745</t>
-  </si>
-  <si>
-    <t>1100411751475920</t>
-  </si>
-  <si>
-    <t>7660921744894859</t>
-  </si>
-  <si>
-    <t>0855507865476068</t>
-  </si>
-  <si>
-    <t>2944367813055862</t>
-  </si>
-  <si>
-    <t>7191570969585238</t>
-  </si>
-  <si>
-    <t>1373211334453574</t>
-  </si>
-  <si>
-    <t>3899442387979119</t>
-  </si>
-  <si>
-    <t>5856179790908785</t>
-  </si>
-  <si>
-    <t>2795960655124504</t>
-  </si>
-  <si>
-    <t>4565363245176277</t>
-  </si>
-  <si>
-    <t>1079921739990648</t>
-  </si>
-  <si>
-    <t>6477457159152232</t>
-  </si>
-  <si>
-    <t>5648419006060515</t>
-  </si>
-  <si>
-    <t>1211570982317569</t>
-  </si>
-  <si>
-    <t>4245816456455125</t>
-  </si>
-  <si>
-    <t>9114806134581349</t>
-  </si>
-  <si>
-    <t>4264089479428617</t>
-  </si>
-  <si>
-    <t>6997445218011431</t>
-  </si>
-  <si>
-    <t>5613472820737651</t>
-  </si>
-  <si>
-    <t>0364920691491940</t>
-  </si>
-  <si>
-    <t>2403199702401445</t>
-  </si>
-  <si>
-    <t>1883358272950619</t>
-  </si>
-  <si>
-    <t>3969311011712868</t>
-  </si>
-  <si>
-    <t>4871965354777235</t>
-  </si>
-  <si>
-    <t>6374809043546571</t>
-  </si>
-  <si>
-    <t>6248412638280589</t>
-  </si>
-  <si>
-    <t>7243542212878645</t>
-  </si>
-  <si>
-    <t>7908484905811006</t>
-  </si>
-  <si>
-    <t>2962771527182590</t>
-  </si>
-  <si>
-    <t>0658504728500198</t>
-  </si>
-  <si>
-    <t>8515121841944591</t>
-  </si>
-  <si>
-    <t>5714629382581964</t>
-  </si>
-  <si>
-    <t>3018007314548841</t>
-  </si>
-  <si>
-    <t>4365535092438177</t>
-  </si>
-  <si>
-    <t>8675419575054749</t>
-  </si>
-  <si>
-    <t>9542260209579338</t>
-  </si>
-  <si>
-    <t>2083777598577641</t>
-  </si>
-  <si>
-    <t>7720409227730974</t>
-  </si>
-  <si>
-    <t>4619853017530171</t>
-  </si>
-  <si>
-    <t>7898964988357135</t>
-  </si>
-  <si>
-    <t>4882500451538222</t>
-  </si>
-  <si>
-    <t>1647577732470398</t>
-  </si>
-  <si>
-    <t>8420901328332411</t>
-  </si>
-  <si>
-    <t>1681463636857497</t>
-  </si>
-  <si>
-    <t>7078802767715828</t>
-  </si>
-  <si>
-    <t>4412629070743929</t>
-  </si>
-  <si>
-    <t>9848583600927065</t>
-  </si>
-  <si>
-    <t>5091344789395937</t>
-  </si>
-  <si>
-    <t>0315089946914058</t>
-  </si>
-  <si>
-    <t>4235924112221899</t>
-  </si>
-  <si>
-    <t>3335958866859579</t>
-  </si>
-  <si>
-    <t>0331979676234719</t>
-  </si>
-  <si>
-    <t>0043468344106797</t>
-  </si>
-  <si>
-    <t>6034406408986153</t>
-  </si>
-  <si>
-    <t>8804198757707850</t>
-  </si>
-  <si>
-    <t>6015682122339327</t>
-  </si>
-  <si>
-    <t>0382640159846075</t>
-  </si>
-  <si>
-    <t>8513865055787639</t>
-  </si>
-  <si>
-    <t>4839589736081526</t>
-  </si>
-  <si>
-    <t>5598994222623444</t>
-  </si>
-  <si>
-    <t>2335076698642674</t>
-  </si>
-  <si>
-    <t>3252563962329294</t>
-  </si>
-  <si>
-    <t>1748751480254551</t>
-  </si>
-  <si>
-    <t>1897675220140024</t>
-  </si>
-  <si>
-    <t>3079468889493118</t>
-  </si>
-  <si>
-    <t>4270266782308860</t>
-  </si>
-  <si>
-    <t>7904774098017490</t>
-  </si>
-  <si>
-    <t>5786241453043251</t>
-  </si>
-  <si>
-    <t>9596948442850416</t>
-  </si>
-  <si>
-    <t>6988721907946705</t>
-  </si>
-  <si>
-    <t>6674025323078777</t>
-  </si>
-  <si>
-    <t>4512063553739996</t>
-  </si>
-  <si>
-    <t>2511352000019866</t>
-  </si>
-  <si>
-    <t>8329134620069745</t>
-  </si>
-  <si>
-    <t>7773702580917857</t>
-  </si>
-  <si>
-    <t>3824939931492771</t>
-  </si>
-  <si>
-    <t>7858780463344072</t>
-  </si>
-  <si>
-    <t>5118477725402870</t>
-  </si>
-  <si>
-    <t>0788706037665057</t>
-  </si>
-  <si>
-    <t>0622480462614394</t>
-  </si>
-  <si>
-    <t>3975091232846318</t>
-  </si>
-  <si>
-    <t>9732691239734378</t>
-  </si>
-  <si>
-    <t>5962387103374215</t>
-  </si>
-  <si>
-    <t>1713173501016233</t>
-  </si>
-  <si>
-    <t>4784694685604115</t>
-  </si>
-  <si>
-    <t>7459467145494099</t>
-  </si>
-  <si>
-    <t>5887076744402793</t>
-  </si>
-  <si>
-    <t>9291008719840927</t>
-  </si>
-  <si>
-    <t>6044984849370074</t>
-  </si>
-  <si>
-    <t>3070022476300192</t>
-  </si>
-  <si>
-    <t>8115836906706762</t>
-  </si>
-  <si>
-    <t>8398373078334821</t>
-  </si>
-  <si>
-    <t>6440081734170861</t>
-  </si>
-  <si>
-    <t>9646283535661921</t>
-  </si>
-  <si>
-    <t>1492111684760794</t>
-  </si>
-  <si>
-    <t>0481042784710107</t>
-  </si>
-  <si>
-    <t>6110312151666436</t>
-  </si>
-  <si>
-    <t>8512695721704870</t>
-  </si>
-  <si>
-    <t>5902900474896414</t>
-  </si>
-  <si>
-    <t>3947265051085270</t>
-  </si>
-  <si>
-    <t>1870201220144448</t>
-  </si>
-  <si>
-    <t>5557867556392888</t>
-  </si>
-  <si>
-    <t>8332113862263536</t>
-  </si>
-  <si>
-    <t>6985256363019340</t>
-  </si>
-  <si>
-    <t>5549412873041701</t>
-  </si>
-  <si>
-    <t>0907506926632500</t>
-  </si>
-  <si>
-    <t>9964193669469934</t>
-  </si>
-  <si>
-    <t>8702955814875561</t>
-  </si>
-  <si>
-    <t>5462046864822489</t>
-  </si>
-  <si>
-    <t>6924244505755246</t>
-  </si>
-  <si>
-    <t>1129581322236823</t>
-  </si>
-  <si>
-    <t>7871077969031488</t>
-  </si>
-  <si>
-    <t>4414328855750439</t>
-  </si>
-  <si>
-    <t>7181392000481907</t>
-  </si>
-  <si>
-    <t>7951610685968801</t>
-  </si>
-  <si>
-    <t>0014640543782566</t>
-  </si>
-  <si>
-    <t>5564831486945871</t>
-  </si>
-  <si>
-    <t>3414622971113869</t>
-  </si>
-  <si>
-    <t>5901591004513026</t>
-  </si>
-  <si>
-    <t>5973618206793779</t>
-  </si>
-  <si>
-    <t>9198435299313388</t>
-  </si>
-  <si>
-    <t>4013954486567832</t>
-  </si>
-  <si>
-    <t>4100293205246363</t>
-  </si>
-  <si>
-    <t>8715486515300659</t>
-  </si>
-  <si>
-    <t>5754812986156631</t>
-  </si>
-  <si>
-    <t>7269311961033407</t>
-  </si>
-  <si>
-    <t>6983579495314162</t>
-  </si>
-  <si>
-    <t>4582032117630372</t>
-  </si>
-  <si>
-    <t>1824649970521887</t>
+    <t>0932605697481054</t>
+  </si>
+  <si>
+    <t>2343733575812984</t>
+  </si>
+  <si>
+    <t>1025673777247553</t>
+  </si>
+  <si>
+    <t>5461326732802425</t>
+  </si>
+  <si>
+    <t>3989300715647573</t>
+  </si>
+  <si>
+    <t>0845307663499291</t>
+  </si>
+  <si>
+    <t>9864411648824539</t>
+  </si>
+  <si>
+    <t>0001151343840148</t>
+  </si>
+  <si>
+    <t>1439345819357597</t>
+  </si>
+  <si>
+    <t>1942970203012862</t>
+  </si>
+  <si>
+    <t>0173810297071762</t>
+  </si>
+  <si>
+    <t>1391268290848774</t>
+  </si>
+  <si>
+    <t>6189399043691970</t>
+  </si>
+  <si>
+    <t>4155095936048550</t>
+  </si>
+  <si>
+    <t>0836986596250179</t>
+  </si>
+  <si>
+    <t>4041529995943970</t>
+  </si>
+  <si>
+    <t>2643559188648009</t>
+  </si>
+  <si>
+    <t>0384835661179480</t>
+  </si>
+  <si>
+    <t>2191623067472217</t>
+  </si>
+  <si>
+    <t>0614223348408177</t>
+  </si>
+  <si>
+    <t>7749904194159689</t>
+  </si>
+  <si>
+    <t>2279602415107212</t>
+  </si>
+  <si>
+    <t>1009892067402725</t>
+  </si>
+  <si>
+    <t>8451928198846956</t>
+  </si>
+  <si>
+    <t>2787792990533731</t>
+  </si>
+  <si>
+    <t>6689966388710800</t>
+  </si>
+  <si>
+    <t>7643329752400557</t>
+  </si>
+  <si>
+    <t>4281625220206479</t>
+  </si>
+  <si>
+    <t>4971884815167070</t>
+  </si>
+  <si>
+    <t>5671252177309759</t>
+  </si>
+  <si>
+    <t>9715563202529617</t>
+  </si>
+  <si>
+    <t>9659134425511872</t>
+  </si>
+  <si>
+    <t>9405460120552322</t>
+  </si>
+  <si>
+    <t>5315872782663193</t>
+  </si>
+  <si>
+    <t>1358219494377850</t>
+  </si>
+  <si>
+    <t>2338852555758717</t>
+  </si>
+  <si>
+    <t>0745613321056533</t>
+  </si>
+  <si>
+    <t>6877594506913639</t>
+  </si>
+  <si>
+    <t>6627811167046577</t>
+  </si>
+  <si>
+    <t>4338129470879939</t>
+  </si>
+  <si>
+    <t>6615565628785222</t>
+  </si>
+  <si>
+    <t>2067201921498333</t>
+  </si>
+  <si>
+    <t>2330953612108260</t>
+  </si>
+  <si>
+    <t>0018251166357987</t>
+  </si>
+  <si>
+    <t>8494215383022617</t>
+  </si>
+  <si>
+    <t>9727859969489972</t>
+  </si>
+  <si>
+    <t>2878990128765339</t>
+  </si>
+  <si>
+    <t>9756825558188455</t>
+  </si>
+  <si>
+    <t>1817996230757100</t>
+  </si>
+  <si>
+    <t>5437529693575220</t>
+  </si>
+  <si>
+    <t>7176893494845880</t>
+  </si>
+  <si>
+    <t>6594809087989938</t>
+  </si>
+  <si>
+    <t>9717650779335561</t>
+  </si>
+  <si>
+    <t>6360233019058641</t>
+  </si>
+  <si>
+    <t>9272651330648721</t>
+  </si>
+  <si>
+    <t>7519960545949168</t>
+  </si>
+  <si>
+    <t>2268980297120727</t>
+  </si>
+  <si>
+    <t>3356137542109987</t>
+  </si>
+  <si>
+    <t>1927250130037040</t>
+  </si>
+  <si>
+    <t>6970709041163432</t>
+  </si>
+  <si>
+    <t>0761009042297685</t>
+  </si>
+  <si>
+    <t>6937108914927760</t>
+  </si>
+  <si>
+    <t>6922278764523355</t>
+  </si>
+  <si>
+    <t>7308155040972015</t>
+  </si>
+  <si>
+    <t>2940270201655014</t>
+  </si>
+  <si>
+    <t>1683257458046602</t>
+  </si>
+  <si>
+    <t>9331664376348786</t>
+  </si>
+  <si>
+    <t>8563222497555322</t>
+  </si>
+  <si>
+    <t>9917936733332594</t>
+  </si>
+  <si>
+    <t>3592696824098970</t>
+  </si>
+  <si>
+    <t>2832832151780385</t>
+  </si>
+  <si>
+    <t>5286417595431108</t>
+  </si>
+  <si>
+    <t>9949825856338698</t>
+  </si>
+  <si>
+    <t>2316185981448427</t>
+  </si>
+  <si>
+    <t>3813398012166427</t>
+  </si>
+  <si>
+    <t>0692113963322492</t>
+  </si>
+  <si>
+    <t>8522743689909183</t>
+  </si>
+  <si>
+    <t>9889626488983099</t>
+  </si>
+  <si>
+    <t>9656000806008295</t>
+  </si>
+  <si>
+    <t>0105797216261877</t>
+  </si>
+  <si>
+    <t>6602494184483613</t>
+  </si>
+  <si>
+    <t>3826279813488656</t>
+  </si>
+  <si>
+    <t>0092600648440775</t>
+  </si>
+  <si>
+    <t>0650311278596985</t>
+  </si>
+  <si>
+    <t>8799303239346865</t>
+  </si>
+  <si>
+    <t>9422011827976690</t>
+  </si>
+  <si>
+    <t>1195290469021880</t>
+  </si>
+  <si>
+    <t>2372267475272108</t>
+  </si>
+  <si>
+    <t>8613272271370081</t>
+  </si>
+  <si>
+    <t>9965454605371623</t>
+  </si>
+  <si>
+    <t>9347040413755583</t>
+  </si>
+  <si>
+    <t>9066453226202199</t>
+  </si>
+  <si>
+    <t>0158386944354224</t>
+  </si>
+  <si>
+    <t>9081602393821796</t>
+  </si>
+  <si>
+    <t>9262952671471653</t>
+  </si>
+  <si>
+    <t>7374152174992387</t>
+  </si>
+  <si>
+    <t>6972594879404582</t>
+  </si>
+  <si>
+    <t>1031374440526336</t>
+  </si>
+  <si>
+    <t>0256323815487208</t>
+  </si>
+  <si>
+    <t>4160276431179773</t>
+  </si>
+  <si>
+    <t>1742900745762880</t>
+  </si>
+  <si>
+    <t>6367951830620468</t>
+  </si>
+  <si>
+    <t>5653487582334401</t>
+  </si>
+  <si>
+    <t>8283017918151939</t>
+  </si>
+  <si>
+    <t>2306696498134368</t>
+  </si>
+  <si>
+    <t>2388661857641918</t>
+  </si>
+  <si>
+    <t>9085783217867735</t>
+  </si>
+  <si>
+    <t>2973039844896133</t>
+  </si>
+  <si>
+    <t>8510352446275818</t>
+  </si>
+  <si>
+    <t>6493219260443823</t>
+  </si>
+  <si>
+    <t>8969358199417258</t>
+  </si>
+  <si>
+    <t>3140187180985753</t>
+  </si>
+  <si>
+    <t>9104801419291020</t>
+  </si>
+  <si>
+    <t>5687681521735041</t>
+  </si>
+  <si>
+    <t>0399349918167479</t>
+  </si>
+  <si>
+    <t>1539729155888997</t>
+  </si>
+  <si>
+    <t>2223385276290517</t>
+  </si>
+  <si>
+    <t>5751219101639638</t>
+  </si>
+  <si>
+    <t>3892814382948690</t>
+  </si>
+  <si>
+    <t>0012419738726363</t>
+  </si>
+  <si>
+    <t>5719819731787631</t>
+  </si>
+  <si>
+    <t>4632242498516504</t>
+  </si>
+  <si>
+    <t>6430045835322343</t>
+  </si>
+  <si>
+    <t>3740788973401508</t>
+  </si>
+  <si>
+    <t>3315893682994154</t>
+  </si>
+  <si>
+    <t>6145386271280399</t>
+  </si>
+  <si>
+    <t>5925675009554790</t>
+  </si>
+  <si>
+    <t>4391389681541260</t>
+  </si>
+  <si>
+    <t>4659997304923849</t>
+  </si>
+  <si>
+    <t>2208567807127487</t>
+  </si>
+  <si>
+    <t>0628249014294663</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +785,13 @@
   </sheetPr>
   <dimension ref="A1:A224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,1063 +801,1009 @@
     </row>
     <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A188" s="3"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A189" s="3"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A203" s="3"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A204" s="3"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="A205" s="3"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="A206" s="3"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="A210" s="3"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="A211" s="3"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A212" s="3"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="A213" s="3"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
